--- a/database/industries/siman/silam/cost/yearly.xlsx
+++ b/database/industries/siman/silam/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\silam\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\silam\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AFA003-4E2E-44C8-AE60-9958AD1CC45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42164EDB-4DF2-4D5A-B569-B393BD579889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="59">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/10</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/10</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>دوازده ماهه منتهی به 1400/10</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/10</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -100,61 +100,61 @@
     <t>تن</t>
   </si>
   <si>
+    <t>آلوویوم</t>
+  </si>
+  <si>
+    <t>گچ</t>
+  </si>
+  <si>
+    <t>آهن</t>
+  </si>
+  <si>
+    <t>پوزولان</t>
+  </si>
+  <si>
+    <t>پاکت</t>
+  </si>
+  <si>
+    <t>عدد</t>
+  </si>
+  <si>
+    <t>آهک</t>
+  </si>
+  <si>
+    <t>مقدار خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مقدار مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مقدار موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>میلیون ریال</t>
+  </si>
+  <si>
+    <t>مبلغ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>تن / ریال</t>
+  </si>
+  <si>
+    <t>عدد / ریال</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>آلوویوم</t>
-  </si>
-  <si>
-    <t>گچ</t>
-  </si>
-  <si>
-    <t>آهن</t>
-  </si>
-  <si>
-    <t>پوزولان</t>
-  </si>
-  <si>
-    <t>پاکت</t>
-  </si>
-  <si>
-    <t>عدد</t>
-  </si>
-  <si>
-    <t>آهک</t>
-  </si>
-  <si>
-    <t>مقدار خرید طی دوره</t>
-  </si>
-  <si>
-    <t>مقدار مصرف طی دوره</t>
-  </si>
-  <si>
-    <t>مقدار موجودی پایان دوره</t>
-  </si>
-  <si>
-    <t>مبلغ موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>میلیون ریال</t>
-  </si>
-  <si>
-    <t>مبلغ خرید طی دوره</t>
-  </si>
-  <si>
-    <t>مبلغ مصرف طی دوره</t>
-  </si>
-  <si>
-    <t>مبلغ موجودی پایان دوره</t>
-  </si>
-  <si>
-    <t>نرخ موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>تن / ریال</t>
-  </si>
-  <si>
-    <t>عدد / ریال</t>
   </si>
   <si>
     <t>نرخ خرید طی دوره</t>
@@ -656,12 +656,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -671,7 +671,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -683,7 +683,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -695,7 +695,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -705,7 +705,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -717,7 +717,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -739,7 +739,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -761,7 +761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -771,161 +771,161 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>199724</v>
+        <v>235678</v>
       </c>
       <c r="F10" s="9">
-        <v>235678</v>
+        <v>319488</v>
       </c>
       <c r="G10" s="9">
-        <v>319488</v>
+        <v>425287</v>
       </c>
       <c r="H10" s="9">
-        <v>425287</v>
+        <v>743496</v>
       </c>
       <c r="I10" s="9">
-        <v>743496</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1046476</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>49828</v>
+        <v>67896</v>
       </c>
       <c r="F11" s="11">
-        <v>67896</v>
+        <v>81525</v>
       </c>
       <c r="G11" s="11">
-        <v>81525</v>
+        <v>104688</v>
       </c>
       <c r="H11" s="11">
-        <v>104688</v>
+        <v>189969</v>
       </c>
       <c r="I11" s="11">
-        <v>189969</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>386907</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>618984</v>
+        <v>673788</v>
       </c>
       <c r="F12" s="9">
-        <v>673788</v>
+        <v>823252</v>
       </c>
       <c r="G12" s="9">
-        <v>823252</v>
+        <v>1088572</v>
       </c>
       <c r="H12" s="9">
-        <v>1088572</v>
+        <v>1952726</v>
       </c>
       <c r="I12" s="9">
-        <v>1952726</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3398091</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>868536</v>
+        <v>977362</v>
       </c>
       <c r="F13" s="13">
-        <v>977362</v>
+        <v>1224265</v>
       </c>
       <c r="G13" s="13">
-        <v>1224265</v>
+        <v>1618547</v>
       </c>
       <c r="H13" s="13">
-        <v>1618547</v>
+        <v>2886191</v>
       </c>
       <c r="I13" s="13">
-        <v>2886191</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4831474</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>-73577</v>
+        <v>-93502</v>
       </c>
       <c r="F14" s="9">
-        <v>-93502</v>
+        <v>-149213</v>
       </c>
       <c r="G14" s="9">
-        <v>-149213</v>
+        <v>-71214</v>
       </c>
       <c r="H14" s="9">
-        <v>-71214</v>
+        <v>-76797</v>
       </c>
       <c r="I14" s="9">
-        <v>-76797</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-103066</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>794959</v>
+        <v>883860</v>
       </c>
       <c r="F15" s="13">
-        <v>883860</v>
+        <v>1075052</v>
       </c>
       <c r="G15" s="13">
-        <v>1075052</v>
+        <v>1547333</v>
       </c>
       <c r="H15" s="13">
-        <v>1547333</v>
+        <v>2809394</v>
       </c>
       <c r="I15" s="13">
-        <v>2809394</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4728408</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>11909</v>
+        <v>-80060</v>
       </c>
       <c r="F16" s="9">
-        <v>-80060</v>
+        <v>58077</v>
       </c>
       <c r="G16" s="9">
-        <v>58077</v>
+        <v>-144988</v>
       </c>
       <c r="H16" s="9">
-        <v>-144988</v>
+        <v>-390591</v>
       </c>
       <c r="I16" s="9">
-        <v>-390591</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-674489</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -947,95 +947,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>806868</v>
+        <v>803800</v>
       </c>
       <c r="F18" s="15">
-        <v>803800</v>
+        <v>1133129</v>
       </c>
       <c r="G18" s="15">
-        <v>1133129</v>
+        <v>1402345</v>
       </c>
       <c r="H18" s="15">
-        <v>1402345</v>
+        <v>2418803</v>
       </c>
       <c r="I18" s="15">
-        <v>2418803</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4053919</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>10403</v>
+        <v>12396</v>
       </c>
       <c r="F19" s="11">
-        <v>12396</v>
+        <v>92385</v>
       </c>
       <c r="G19" s="11">
-        <v>92385</v>
+        <v>46192</v>
       </c>
       <c r="H19" s="11">
-        <v>46192</v>
+        <v>719730</v>
       </c>
       <c r="I19" s="11">
-        <v>719730</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>721669</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-12396</v>
+        <v>-20730</v>
       </c>
       <c r="F20" s="9">
-        <v>-20730</v>
+        <v>-46192</v>
       </c>
       <c r="G20" s="9">
-        <v>-46192</v>
+        <v>-57066</v>
       </c>
       <c r="H20" s="9">
-        <v>-57066</v>
+        <v>-721669</v>
       </c>
       <c r="I20" s="9">
-        <v>-721669</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-735133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>804875</v>
+        <v>795466</v>
       </c>
       <c r="F21" s="13">
-        <v>795466</v>
+        <v>1179322</v>
       </c>
       <c r="G21" s="13">
-        <v>1179322</v>
+        <v>1391471</v>
       </c>
       <c r="H21" s="13">
-        <v>1391471</v>
+        <v>2416864</v>
       </c>
       <c r="I21" s="13">
-        <v>2416864</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4040455</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1057,29 +1057,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>804875</v>
+        <v>795466</v>
       </c>
       <c r="F23" s="13">
-        <v>795466</v>
+        <v>1179322</v>
       </c>
       <c r="G23" s="13">
-        <v>1179322</v>
+        <v>1391471</v>
       </c>
       <c r="H23" s="13">
-        <v>1391471</v>
+        <v>2416864</v>
       </c>
       <c r="I23" s="13">
-        <v>2416864</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4040455</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1089,7 +1089,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1099,7 +1099,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1109,7 +1109,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1141,7 +1141,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1149,107 +1149,107 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="9">
+        <v>7372</v>
+      </c>
+      <c r="F29" s="9">
+        <v>18079</v>
+      </c>
+      <c r="G29" s="9">
+        <v>17133</v>
+      </c>
+      <c r="H29" s="9">
+        <v>6148</v>
+      </c>
+      <c r="I29" s="9">
+        <v>21450</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F29" s="9">
-        <v>7372</v>
-      </c>
-      <c r="G29" s="9">
-        <v>18079</v>
-      </c>
-      <c r="H29" s="9">
-        <v>17133</v>
-      </c>
-      <c r="I29" s="9">
-        <v>6148</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+      <c r="E30" s="11">
+        <v>200374</v>
       </c>
       <c r="F30" s="11">
-        <v>200374</v>
+        <v>508802</v>
       </c>
       <c r="G30" s="11">
-        <v>508802</v>
+        <v>590040</v>
       </c>
       <c r="H30" s="11">
-        <v>590040</v>
+        <v>568219</v>
       </c>
       <c r="I30" s="11">
-        <v>568219</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>599358</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>26</v>
+      <c r="E31" s="9">
+        <v>28971</v>
       </c>
       <c r="F31" s="9">
-        <v>28971</v>
+        <v>44821</v>
       </c>
       <c r="G31" s="9">
-        <v>44821</v>
+        <v>17929</v>
       </c>
       <c r="H31" s="9">
-        <v>17929</v>
+        <v>5020</v>
       </c>
       <c r="I31" s="9">
-        <v>5020</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10903</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>26</v>
+      <c r="E32" s="11">
+        <v>1783</v>
       </c>
       <c r="F32" s="11">
-        <v>1783</v>
+        <v>8330</v>
       </c>
       <c r="G32" s="11">
-        <v>8330</v>
+        <v>1961</v>
       </c>
       <c r="H32" s="11">
-        <v>1961</v>
+        <v>4644</v>
       </c>
       <c r="I32" s="11">
-        <v>4644</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>26</v>
+      <c r="E33" s="9">
+        <v>14180</v>
       </c>
       <c r="F33" s="9">
-        <v>14180</v>
+        <v>11659</v>
       </c>
       <c r="G33" s="9">
         <v>11659</v>
@@ -1258,80 +1258,80 @@
         <v>11659</v>
       </c>
       <c r="I33" s="9">
-        <v>11659</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11569</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="D34" s="11"/>
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <v>63878</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <v>255500</v>
+      </c>
+      <c r="I34" s="11">
+        <v>1680490</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="11">
-        <v>0</v>
-      </c>
-      <c r="G34" s="11">
-        <v>63878</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
-        <v>255500</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
-        <v>26</v>
+      <c r="E35" s="9">
+        <v>53332</v>
       </c>
       <c r="F35" s="9">
-        <v>53332</v>
+        <v>95456</v>
       </c>
       <c r="G35" s="9">
-        <v>95456</v>
+        <v>49069</v>
       </c>
       <c r="H35" s="9">
-        <v>49069</v>
+        <v>50662</v>
       </c>
       <c r="I35" s="9">
-        <v>50662</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>94191</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>0</v>
+        <v>306012</v>
       </c>
       <c r="F36" s="13">
-        <v>306012</v>
+        <v>751025</v>
       </c>
       <c r="G36" s="13">
-        <v>751025</v>
+        <v>687791</v>
       </c>
       <c r="H36" s="13">
-        <v>687791</v>
+        <v>901852</v>
       </c>
       <c r="I36" s="13">
-        <v>901852</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2420851</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1341,7 +1341,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1351,7 +1351,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1361,9 +1361,9 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1383,7 +1383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1393,7 +1393,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>24</v>
       </c>
@@ -1401,104 +1401,104 @@
         <v>25</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="9">
+        <v>87085</v>
+      </c>
+      <c r="F42" s="9">
+        <v>58644</v>
+      </c>
+      <c r="G42" s="9">
+        <v>39867</v>
+      </c>
+      <c r="H42" s="9">
+        <v>80109</v>
+      </c>
+      <c r="I42" s="9">
+        <v>117500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F42" s="9">
-        <v>87085</v>
-      </c>
-      <c r="G42" s="9">
-        <v>58644</v>
-      </c>
-      <c r="H42" s="9">
-        <v>39867</v>
-      </c>
-      <c r="I42" s="9">
-        <v>80109</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>26</v>
+      <c r="E43" s="11">
+        <v>1595089</v>
       </c>
       <c r="F43" s="11">
-        <v>1595089</v>
+        <v>971449</v>
       </c>
       <c r="G43" s="11">
-        <v>971449</v>
+        <v>1016689</v>
       </c>
       <c r="H43" s="11">
-        <v>1016689</v>
+        <v>1569654</v>
       </c>
       <c r="I43" s="11">
-        <v>1569654</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1520811</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>26</v>
+      <c r="E44" s="9">
+        <v>39927</v>
       </c>
       <c r="F44" s="9">
-        <v>39927</v>
+        <v>402</v>
       </c>
       <c r="G44" s="9">
-        <v>402</v>
+        <v>20088</v>
       </c>
       <c r="H44" s="9">
-        <v>20088</v>
+        <v>36018</v>
       </c>
       <c r="I44" s="9">
-        <v>36018</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>43598</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
-        <v>26</v>
+      <c r="E45" s="11">
+        <v>41235</v>
       </c>
       <c r="F45" s="11">
-        <v>41235</v>
+        <v>19653</v>
       </c>
       <c r="G45" s="11">
-        <v>19653</v>
+        <v>42500</v>
       </c>
       <c r="H45" s="11">
-        <v>42500</v>
+        <v>28843</v>
       </c>
       <c r="I45" s="11">
-        <v>28843</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>70158</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
-        <v>26</v>
+      <c r="E46" s="9">
+        <v>0</v>
       </c>
       <c r="F46" s="9">
         <v>0</v>
@@ -1513,77 +1513,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="D47" s="11"/>
+      <c r="E47" s="11">
+        <v>1126960</v>
+      </c>
+      <c r="F47" s="11">
+        <v>10450810</v>
+      </c>
+      <c r="G47" s="11">
+        <v>9804340</v>
+      </c>
+      <c r="H47" s="11">
+        <v>10617550</v>
+      </c>
+      <c r="I47" s="11">
+        <v>7740790</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="11">
-        <v>1126960</v>
-      </c>
-      <c r="G47" s="11">
-        <v>10450810</v>
-      </c>
-      <c r="H47" s="11">
-        <v>9804340</v>
-      </c>
-      <c r="I47" s="11">
-        <v>10617550</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
-        <v>26</v>
+      <c r="E48" s="9">
+        <v>252361</v>
       </c>
       <c r="F48" s="9">
-        <v>252361</v>
+        <v>165942</v>
       </c>
       <c r="G48" s="9">
-        <v>165942</v>
+        <v>154870</v>
       </c>
       <c r="H48" s="9">
-        <v>154870</v>
+        <v>146727</v>
       </c>
       <c r="I48" s="9">
-        <v>146727</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>154911</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>0</v>
+        <v>3142657</v>
       </c>
       <c r="F49" s="13">
-        <v>3142657</v>
+        <v>11666900</v>
       </c>
       <c r="G49" s="13">
-        <v>11666900</v>
+        <v>11078354</v>
       </c>
       <c r="H49" s="13">
-        <v>11078354</v>
+        <v>12478901</v>
       </c>
       <c r="I49" s="13">
-        <v>12478901</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9647768</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1593,7 +1593,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1603,7 +1603,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1613,9 +1613,9 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1635,7 +1635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1645,7 +1645,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>24</v>
       </c>
@@ -1653,107 +1653,107 @@
         <v>25</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="9">
+        <v>76378</v>
+      </c>
+      <c r="F55" s="9">
+        <v>59590</v>
+      </c>
+      <c r="G55" s="9">
+        <v>50852</v>
+      </c>
+      <c r="H55" s="9">
+        <v>64807</v>
+      </c>
+      <c r="I55" s="9">
+        <v>122488</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F55" s="9">
-        <v>76378</v>
-      </c>
-      <c r="G55" s="9">
-        <v>59590</v>
-      </c>
-      <c r="H55" s="9">
-        <v>50852</v>
-      </c>
-      <c r="I55" s="9">
-        <v>64807</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>26</v>
+      <c r="E56" s="11">
+        <v>1286661</v>
       </c>
       <c r="F56" s="11">
-        <v>1286661</v>
+        <v>890211</v>
       </c>
       <c r="G56" s="11">
-        <v>890211</v>
+        <v>1215175</v>
       </c>
       <c r="H56" s="11">
-        <v>1215175</v>
+        <v>1538515</v>
       </c>
       <c r="I56" s="11">
-        <v>1538515</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1301048</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>26</v>
+      <c r="E57" s="9">
+        <v>24077</v>
       </c>
       <c r="F57" s="9">
-        <v>24077</v>
+        <v>27294</v>
       </c>
       <c r="G57" s="9">
-        <v>27294</v>
+        <v>32997</v>
       </c>
       <c r="H57" s="9">
-        <v>32997</v>
+        <v>30135</v>
       </c>
       <c r="I57" s="9">
-        <v>30135</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26121</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
-        <v>26</v>
+      <c r="E58" s="11">
+        <v>34688</v>
       </c>
       <c r="F58" s="11">
-        <v>34688</v>
+        <v>26022</v>
       </c>
       <c r="G58" s="11">
-        <v>26022</v>
+        <v>39817</v>
       </c>
       <c r="H58" s="11">
-        <v>39817</v>
+        <v>30597</v>
       </c>
       <c r="I58" s="11">
-        <v>30597</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>51982</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
-        <v>26</v>
+      <c r="E59" s="9">
+        <v>2521</v>
       </c>
       <c r="F59" s="9">
-        <v>2521</v>
+        <v>0</v>
       </c>
       <c r="G59" s="9">
         <v>0</v>
@@ -1765,77 +1765,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="D60" s="11"/>
+      <c r="E60" s="11">
+        <v>1126960</v>
+      </c>
+      <c r="F60" s="11">
+        <v>10404038</v>
+      </c>
+      <c r="G60" s="11">
+        <v>9804340</v>
+      </c>
+      <c r="H60" s="11">
+        <v>9192560</v>
+      </c>
+      <c r="I60" s="11">
+        <v>6488480</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F60" s="11">
-        <v>1126960</v>
-      </c>
-      <c r="G60" s="11">
-        <v>10404038</v>
-      </c>
-      <c r="H60" s="11">
-        <v>9804340</v>
-      </c>
-      <c r="I60" s="11">
-        <v>9192560</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>26</v>
+      <c r="E61" s="9">
+        <v>210237</v>
       </c>
       <c r="F61" s="9">
-        <v>210237</v>
+        <v>212329</v>
       </c>
       <c r="G61" s="9">
-        <v>212329</v>
+        <v>139347</v>
       </c>
       <c r="H61" s="9">
-        <v>139347</v>
+        <v>103198</v>
       </c>
       <c r="I61" s="9">
-        <v>103198</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>244176</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>0</v>
+        <v>2761522</v>
       </c>
       <c r="F62" s="13">
-        <v>2761522</v>
+        <v>11619484</v>
       </c>
       <c r="G62" s="13">
-        <v>11619484</v>
+        <v>11282528</v>
       </c>
       <c r="H62" s="13">
-        <v>11282528</v>
+        <v>10959812</v>
       </c>
       <c r="I62" s="13">
-        <v>10959812</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8234295</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1845,7 +1845,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1855,7 +1855,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1865,9 +1865,9 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -1887,7 +1887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1897,7 +1897,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>24</v>
       </c>
@@ -1905,104 +1905,104 @@
         <v>25</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="9">
+        <v>18079</v>
+      </c>
+      <c r="F68" s="9">
+        <v>17133</v>
+      </c>
+      <c r="G68" s="9">
+        <v>6148</v>
+      </c>
+      <c r="H68" s="9">
+        <v>21450</v>
+      </c>
+      <c r="I68" s="9">
+        <v>16462</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F68" s="9">
-        <v>18079</v>
-      </c>
-      <c r="G68" s="9">
-        <v>17133</v>
-      </c>
-      <c r="H68" s="9">
-        <v>6148</v>
-      </c>
-      <c r="I68" s="9">
-        <v>21450</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
-        <v>26</v>
+      <c r="E69" s="11">
+        <v>508802</v>
       </c>
       <c r="F69" s="11">
-        <v>508802</v>
+        <v>590040</v>
       </c>
       <c r="G69" s="11">
-        <v>590040</v>
+        <v>391554</v>
       </c>
       <c r="H69" s="11">
-        <v>391554</v>
+        <v>599358</v>
       </c>
       <c r="I69" s="11">
-        <v>599358</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>819121</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="9"/>
-      <c r="E70" s="9" t="s">
-        <v>26</v>
+      <c r="E70" s="9">
+        <v>44821</v>
       </c>
       <c r="F70" s="9">
-        <v>44821</v>
+        <v>17929</v>
       </c>
       <c r="G70" s="9">
-        <v>17929</v>
+        <v>5020</v>
       </c>
       <c r="H70" s="9">
-        <v>5020</v>
+        <v>10903</v>
       </c>
       <c r="I70" s="9">
-        <v>10903</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>28380</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="11"/>
-      <c r="E71" s="11" t="s">
-        <v>26</v>
+      <c r="E71" s="11">
+        <v>8330</v>
       </c>
       <c r="F71" s="11">
-        <v>8330</v>
+        <v>1961</v>
       </c>
       <c r="G71" s="11">
-        <v>1961</v>
+        <v>4644</v>
       </c>
       <c r="H71" s="11">
-        <v>4644</v>
+        <v>2890</v>
       </c>
       <c r="I71" s="11">
-        <v>2890</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21066</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="9"/>
-      <c r="E72" s="9" t="s">
-        <v>26</v>
+      <c r="E72" s="9">
+        <v>11659</v>
       </c>
       <c r="F72" s="9">
         <v>11659</v>
@@ -2014,80 +2014,80 @@
         <v>11659</v>
       </c>
       <c r="I72" s="9">
-        <v>11659</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11569</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="D73" s="11"/>
+      <c r="E73" s="11">
+        <v>0</v>
+      </c>
+      <c r="F73" s="11">
+        <v>110650</v>
+      </c>
+      <c r="G73" s="11">
+        <v>0</v>
+      </c>
+      <c r="H73" s="11">
+        <v>1680490</v>
+      </c>
+      <c r="I73" s="11">
+        <v>2932800</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F73" s="11">
-        <v>0</v>
-      </c>
-      <c r="G73" s="11">
-        <v>110650</v>
-      </c>
-      <c r="H73" s="11">
-        <v>0</v>
-      </c>
-      <c r="I73" s="11">
-        <v>1680490</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
-        <v>26</v>
+      <c r="E74" s="9">
+        <v>95456</v>
       </c>
       <c r="F74" s="9">
-        <v>95456</v>
+        <v>49069</v>
       </c>
       <c r="G74" s="9">
-        <v>49069</v>
+        <v>64592</v>
       </c>
       <c r="H74" s="9">
-        <v>64592</v>
+        <v>94191</v>
       </c>
       <c r="I74" s="9">
-        <v>94191</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4926</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>0</v>
+        <v>687147</v>
       </c>
       <c r="F75" s="13">
-        <v>687147</v>
+        <v>798441</v>
       </c>
       <c r="G75" s="13">
-        <v>798441</v>
+        <v>483617</v>
       </c>
       <c r="H75" s="13">
-        <v>483617</v>
+        <v>2420941</v>
       </c>
       <c r="I75" s="13">
-        <v>2420941</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3834324</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2097,7 +2097,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2107,7 +2107,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2117,9 +2117,9 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2139,7 +2139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2149,118 +2149,118 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="9">
+        <v>1668</v>
+      </c>
+      <c r="F81" s="9">
+        <v>3245</v>
+      </c>
+      <c r="G81" s="9">
+        <v>4404</v>
+      </c>
+      <c r="H81" s="9">
+        <v>2881</v>
+      </c>
+      <c r="I81" s="9">
+        <v>13269</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B82" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F81" s="9">
-        <v>1668</v>
-      </c>
-      <c r="G81" s="9">
-        <v>3245</v>
-      </c>
-      <c r="H81" s="9">
-        <v>4404</v>
-      </c>
-      <c r="I81" s="9">
-        <v>2881</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="10" t="s">
+      <c r="C82" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11">
+        <v>9033</v>
+      </c>
+      <c r="F82" s="11">
+        <v>16626</v>
+      </c>
+      <c r="G82" s="11">
+        <v>30074</v>
+      </c>
+      <c r="H82" s="11">
+        <v>51146</v>
+      </c>
+      <c r="I82" s="11">
+        <v>68799</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B83" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F82" s="11">
-        <v>9033</v>
-      </c>
-      <c r="G82" s="11">
-        <v>16626</v>
-      </c>
-      <c r="H82" s="11">
-        <v>30074</v>
-      </c>
-      <c r="I82" s="11">
-        <v>51146</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="8" t="s">
+      <c r="C83" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9">
+        <v>4418</v>
+      </c>
+      <c r="F83" s="9">
+        <v>6978</v>
+      </c>
+      <c r="G83" s="9">
+        <v>2829</v>
+      </c>
+      <c r="H83" s="9">
+        <v>1858</v>
+      </c>
+      <c r="I83" s="9">
+        <v>6540</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B84" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F83" s="9">
-        <v>4418</v>
-      </c>
-      <c r="G83" s="9">
-        <v>6978</v>
-      </c>
-      <c r="H83" s="9">
-        <v>2829</v>
-      </c>
-      <c r="I83" s="9">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="10" t="s">
+      <c r="C84" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11">
+        <v>909</v>
+      </c>
+      <c r="F84" s="11">
+        <v>5766</v>
+      </c>
+      <c r="G84" s="11">
+        <v>2125</v>
+      </c>
+      <c r="H84" s="11">
+        <v>6912</v>
+      </c>
+      <c r="I84" s="11">
+        <v>11509</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C84" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F84" s="11">
-        <v>909</v>
-      </c>
-      <c r="G84" s="11">
-        <v>5766</v>
-      </c>
-      <c r="H84" s="11">
-        <v>2125</v>
-      </c>
-      <c r="I84" s="11">
-        <v>6912</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C85" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
-        <v>26</v>
+      <c r="E85" s="9">
+        <v>1987</v>
       </c>
       <c r="F85" s="9">
-        <v>1987</v>
+        <v>1634</v>
       </c>
       <c r="G85" s="9">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H85" s="9">
         <v>1633</v>
@@ -2269,77 +2269,77 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>26</v>
+      <c r="E86" s="11">
+        <v>0</v>
       </c>
       <c r="F86" s="11">
-        <v>0</v>
+        <v>2222</v>
       </c>
       <c r="G86" s="11">
-        <v>2222</v>
+        <v>0</v>
       </c>
       <c r="H86" s="11">
-        <v>0</v>
+        <v>13185</v>
       </c>
       <c r="I86" s="11">
-        <v>13185</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>65825</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
-        <v>26</v>
+      <c r="E87" s="9">
+        <v>2934</v>
       </c>
       <c r="F87" s="9">
-        <v>2934</v>
+        <v>6004</v>
       </c>
       <c r="G87" s="9">
-        <v>6004</v>
+        <v>4055</v>
       </c>
       <c r="H87" s="9">
-        <v>4055</v>
+        <v>7174</v>
       </c>
       <c r="I87" s="9">
-        <v>7174</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>107874</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>0</v>
+        <v>20949</v>
       </c>
       <c r="F88" s="13">
-        <v>20949</v>
+        <v>42475</v>
       </c>
       <c r="G88" s="13">
-        <v>42475</v>
+        <v>45120</v>
       </c>
       <c r="H88" s="13">
-        <v>45120</v>
+        <v>84789</v>
       </c>
       <c r="I88" s="13">
-        <v>84789</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>275449</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2349,7 +2349,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2359,7 +2359,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2369,9 +2369,9 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2391,7 +2391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2401,197 +2401,197 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="9" t="s">
+      <c r="E94" s="9">
+        <v>15288</v>
+      </c>
+      <c r="F94" s="9">
+        <v>13513</v>
+      </c>
+      <c r="G94" s="9">
+        <v>15525</v>
+      </c>
+      <c r="H94" s="9">
+        <v>80490</v>
+      </c>
+      <c r="I94" s="9">
+        <v>180170</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B95" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F94" s="9">
-        <v>15288</v>
-      </c>
-      <c r="G94" s="9">
-        <v>13513</v>
-      </c>
-      <c r="H94" s="9">
-        <v>15525</v>
-      </c>
-      <c r="I94" s="9">
-        <v>80490</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="10" t="s">
+      <c r="C95" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11">
+        <v>49636</v>
+      </c>
+      <c r="F95" s="11">
+        <v>58821</v>
+      </c>
+      <c r="G95" s="11">
+        <v>114550</v>
+      </c>
+      <c r="H95" s="11">
+        <v>194257</v>
+      </c>
+      <c r="I95" s="11">
+        <v>299922</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B96" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C95" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F95" s="11">
-        <v>49636</v>
-      </c>
-      <c r="G95" s="11">
-        <v>58821</v>
-      </c>
-      <c r="H95" s="11">
-        <v>114550</v>
-      </c>
-      <c r="I95" s="11">
-        <v>194257</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="8" t="s">
+      <c r="C96" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9">
+        <v>6308</v>
+      </c>
+      <c r="F96" s="9">
+        <v>157</v>
+      </c>
+      <c r="G96" s="9">
+        <v>8638</v>
+      </c>
+      <c r="H96" s="9">
+        <v>38152</v>
+      </c>
+      <c r="I96" s="9">
+        <v>37058</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B97" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F96" s="9">
-        <v>6308</v>
-      </c>
-      <c r="G96" s="9">
-        <v>157</v>
-      </c>
-      <c r="H96" s="9">
-        <v>8638</v>
-      </c>
-      <c r="I96" s="9">
-        <v>38152</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="10" t="s">
+      <c r="C97" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11">
+        <v>28870</v>
+      </c>
+      <c r="F97" s="11">
+        <v>18439</v>
+      </c>
+      <c r="G97" s="11">
+        <v>55997</v>
+      </c>
+      <c r="H97" s="11">
+        <v>124272</v>
+      </c>
+      <c r="I97" s="11">
+        <v>400633</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C97" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F97" s="11">
-        <v>28870</v>
-      </c>
-      <c r="G97" s="11">
-        <v>18439</v>
-      </c>
-      <c r="H97" s="11">
-        <v>55997</v>
-      </c>
-      <c r="I97" s="11">
-        <v>124272</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="8" t="s">
+      <c r="C98" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9">
+        <v>0</v>
+      </c>
+      <c r="F98" s="9">
+        <v>0</v>
+      </c>
+      <c r="G98" s="9">
+        <v>0</v>
+      </c>
+      <c r="H98" s="9">
+        <v>0</v>
+      </c>
+      <c r="I98" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B99" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C98" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F98" s="9">
-        <v>0</v>
-      </c>
-      <c r="G98" s="9">
-        <v>0</v>
-      </c>
-      <c r="H98" s="9">
-        <v>0</v>
-      </c>
-      <c r="I98" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="C99" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D99" s="11"/>
-      <c r="E99" s="11" t="s">
-        <v>26</v>
+      <c r="E99" s="11">
+        <v>138587</v>
       </c>
       <c r="F99" s="11">
-        <v>138587</v>
+        <v>212980</v>
       </c>
       <c r="G99" s="11">
-        <v>212980</v>
+        <v>238466</v>
       </c>
       <c r="H99" s="11">
-        <v>238466</v>
+        <v>384470</v>
       </c>
       <c r="I99" s="11">
-        <v>384470</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>267297</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D100" s="9"/>
-      <c r="E100" s="9" t="s">
-        <v>26</v>
+      <c r="E100" s="9">
+        <v>16293</v>
       </c>
       <c r="F100" s="9">
-        <v>16293</v>
+        <v>15600</v>
       </c>
       <c r="G100" s="9">
-        <v>15600</v>
+        <v>18595</v>
       </c>
       <c r="H100" s="9">
-        <v>18595</v>
+        <v>15425</v>
       </c>
       <c r="I100" s="9">
-        <v>15425</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>73714</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
-        <v>0</v>
+        <v>254982</v>
       </c>
       <c r="F101" s="13">
-        <v>254982</v>
+        <v>319510</v>
       </c>
       <c r="G101" s="13">
-        <v>319510</v>
+        <v>451771</v>
       </c>
       <c r="H101" s="13">
-        <v>451771</v>
+        <v>837066</v>
       </c>
       <c r="I101" s="13">
-        <v>837066</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1258794</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2601,7 +2601,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2611,7 +2611,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2621,9 +2621,9 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -2643,7 +2643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2653,197 +2653,197 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D107" s="9"/>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="9">
+        <v>13710</v>
+      </c>
+      <c r="F107" s="9">
+        <v>14719</v>
+      </c>
+      <c r="G107" s="9">
+        <v>18296</v>
+      </c>
+      <c r="H107" s="9">
+        <v>70102</v>
+      </c>
+      <c r="I107" s="9">
+        <v>166552</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B108" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F107" s="9">
-        <v>13710</v>
-      </c>
-      <c r="G107" s="9">
-        <v>14719</v>
-      </c>
-      <c r="H107" s="9">
-        <v>18296</v>
-      </c>
-      <c r="I107" s="9">
-        <v>70102</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="10" t="s">
+      <c r="C108" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11">
+        <v>42043</v>
+      </c>
+      <c r="F108" s="11">
+        <v>45373</v>
+      </c>
+      <c r="G108" s="11">
+        <v>109379</v>
+      </c>
+      <c r="H108" s="11">
+        <v>176604</v>
+      </c>
+      <c r="I108" s="11">
+        <v>223972</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B109" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C108" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F108" s="11">
-        <v>42043</v>
-      </c>
-      <c r="G108" s="11">
-        <v>45373</v>
-      </c>
-      <c r="H108" s="11">
-        <v>109379</v>
-      </c>
-      <c r="I108" s="11">
-        <v>176604</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="8" t="s">
+      <c r="C109" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9">
+        <v>3749</v>
+      </c>
+      <c r="F109" s="9">
+        <v>5389</v>
+      </c>
+      <c r="G109" s="9">
+        <v>10419</v>
+      </c>
+      <c r="H109" s="9">
+        <v>33470</v>
+      </c>
+      <c r="I109" s="9">
+        <v>30811</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B110" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F109" s="9">
-        <v>3749</v>
-      </c>
-      <c r="G109" s="9">
-        <v>5389</v>
-      </c>
-      <c r="H109" s="9">
-        <v>10419</v>
-      </c>
-      <c r="I109" s="9">
-        <v>33470</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="10" t="s">
+      <c r="C110" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11">
+        <v>24013</v>
+      </c>
+      <c r="F110" s="11">
+        <v>23112</v>
+      </c>
+      <c r="G110" s="11">
+        <v>52180</v>
+      </c>
+      <c r="H110" s="11">
+        <v>119675</v>
+      </c>
+      <c r="I110" s="11">
+        <v>313538</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B111" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C110" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F110" s="11">
-        <v>24013</v>
-      </c>
-      <c r="G110" s="11">
-        <v>23112</v>
-      </c>
-      <c r="H110" s="11">
-        <v>52180</v>
-      </c>
-      <c r="I110" s="11">
-        <v>119675</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="8" t="s">
+      <c r="C111" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9">
+        <v>353</v>
+      </c>
+      <c r="F111" s="9">
+        <v>0</v>
+      </c>
+      <c r="G111" s="9">
+        <v>0</v>
+      </c>
+      <c r="H111" s="9">
+        <v>0</v>
+      </c>
+      <c r="I111" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B112" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C111" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F111" s="9">
-        <v>353</v>
-      </c>
-      <c r="G111" s="9">
-        <v>0</v>
-      </c>
-      <c r="H111" s="9">
-        <v>0</v>
-      </c>
-      <c r="I111" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="C112" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D112" s="11"/>
-      <c r="E112" s="11" t="s">
-        <v>26</v>
+      <c r="E112" s="11">
+        <v>138587</v>
       </c>
       <c r="F112" s="11">
-        <v>138587</v>
+        <v>213346</v>
       </c>
       <c r="G112" s="11">
-        <v>213346</v>
+        <v>219537</v>
       </c>
       <c r="H112" s="11">
-        <v>219537</v>
+        <v>331830</v>
       </c>
       <c r="I112" s="11">
-        <v>331830</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+        <v>229500</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D113" s="9"/>
-      <c r="E113" s="9" t="s">
-        <v>26</v>
+      <c r="E113" s="9">
+        <v>13223</v>
       </c>
       <c r="F113" s="9">
-        <v>13223</v>
+        <v>17549</v>
       </c>
       <c r="G113" s="9">
-        <v>17549</v>
+        <v>15476</v>
       </c>
       <c r="H113" s="9">
-        <v>15476</v>
+        <v>11815</v>
       </c>
       <c r="I113" s="9">
-        <v>11815</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>82103</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
-        <v>0</v>
+        <v>235678</v>
       </c>
       <c r="F114" s="13">
-        <v>235678</v>
+        <v>319488</v>
       </c>
       <c r="G114" s="13">
-        <v>319488</v>
+        <v>425287</v>
       </c>
       <c r="H114" s="13">
-        <v>425287</v>
+        <v>743496</v>
       </c>
       <c r="I114" s="13">
-        <v>743496</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1046476</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2853,7 +2853,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2863,7 +2863,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2873,9 +2873,9 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -2895,7 +2895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2905,118 +2905,118 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D120" s="9"/>
-      <c r="E120" s="9" t="s">
+      <c r="E120" s="9">
+        <v>3246</v>
+      </c>
+      <c r="F120" s="9">
+        <v>2039</v>
+      </c>
+      <c r="G120" s="9">
+        <v>1633</v>
+      </c>
+      <c r="H120" s="9">
+        <v>13269</v>
+      </c>
+      <c r="I120" s="9">
+        <v>26887</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B121" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F120" s="9">
-        <v>3246</v>
-      </c>
-      <c r="G120" s="9">
-        <v>2039</v>
-      </c>
-      <c r="H120" s="9">
-        <v>1633</v>
-      </c>
-      <c r="I120" s="9">
-        <v>13269</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="10" t="s">
+      <c r="C121" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11">
+        <v>16626</v>
+      </c>
+      <c r="F121" s="11">
+        <v>30074</v>
+      </c>
+      <c r="G121" s="11">
+        <v>35245</v>
+      </c>
+      <c r="H121" s="11">
+        <v>68799</v>
+      </c>
+      <c r="I121" s="11">
+        <v>144749</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B122" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C121" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F121" s="11">
-        <v>16626</v>
-      </c>
-      <c r="G121" s="11">
-        <v>30074</v>
-      </c>
-      <c r="H121" s="11">
-        <v>35245</v>
-      </c>
-      <c r="I121" s="11">
-        <v>68799</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B122" s="8" t="s">
+      <c r="C122" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9">
+        <v>6977</v>
+      </c>
+      <c r="F122" s="9">
+        <v>1746</v>
+      </c>
+      <c r="G122" s="9">
+        <v>1048</v>
+      </c>
+      <c r="H122" s="9">
+        <v>6540</v>
+      </c>
+      <c r="I122" s="9">
+        <v>12787</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B123" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C122" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F122" s="9">
-        <v>6977</v>
-      </c>
-      <c r="G122" s="9">
-        <v>1746</v>
-      </c>
-      <c r="H122" s="9">
-        <v>1048</v>
-      </c>
-      <c r="I122" s="9">
-        <v>6540</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B123" s="10" t="s">
+      <c r="C123" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11">
+        <v>5766</v>
+      </c>
+      <c r="F123" s="11">
+        <v>1093</v>
+      </c>
+      <c r="G123" s="11">
+        <v>5942</v>
+      </c>
+      <c r="H123" s="11">
+        <v>11509</v>
+      </c>
+      <c r="I123" s="11">
+        <v>98604</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B124" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C123" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F123" s="11">
-        <v>5766</v>
-      </c>
-      <c r="G123" s="11">
-        <v>1093</v>
-      </c>
-      <c r="H123" s="11">
-        <v>5942</v>
-      </c>
-      <c r="I123" s="11">
-        <v>11509</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B124" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C124" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D124" s="9"/>
-      <c r="E124" s="9" t="s">
-        <v>26</v>
+      <c r="E124" s="9">
+        <v>1634</v>
       </c>
       <c r="F124" s="9">
         <v>1634</v>
       </c>
       <c r="G124" s="9">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H124" s="9">
         <v>1633</v>
@@ -3025,77 +3025,77 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D125" s="11"/>
-      <c r="E125" s="11" t="s">
-        <v>26</v>
+      <c r="E125" s="11">
+        <v>0</v>
       </c>
       <c r="F125" s="11">
-        <v>0</v>
+        <v>1856</v>
       </c>
       <c r="G125" s="11">
-        <v>1856</v>
+        <v>18929</v>
       </c>
       <c r="H125" s="11">
-        <v>18929</v>
+        <v>65825</v>
       </c>
       <c r="I125" s="11">
-        <v>65825</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>103622</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D126" s="9"/>
-      <c r="E126" s="9" t="s">
-        <v>26</v>
+      <c r="E126" s="9">
+        <v>6004</v>
       </c>
       <c r="F126" s="9">
-        <v>6004</v>
+        <v>4055</v>
       </c>
       <c r="G126" s="9">
-        <v>4055</v>
+        <v>7174</v>
       </c>
       <c r="H126" s="9">
-        <v>7174</v>
+        <v>10784</v>
       </c>
       <c r="I126" s="9">
-        <v>10784</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+        <v>99485</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
-        <v>0</v>
+        <v>40253</v>
       </c>
       <c r="F127" s="13">
-        <v>40253</v>
+        <v>42497</v>
       </c>
       <c r="G127" s="13">
-        <v>42497</v>
+        <v>71604</v>
       </c>
       <c r="H127" s="13">
-        <v>71604</v>
+        <v>178359</v>
       </c>
       <c r="I127" s="13">
-        <v>178359</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>487767</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3105,7 +3105,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3115,7 +3115,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3125,9 +3125,9 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -3147,7 +3147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3157,175 +3157,175 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D133" s="9"/>
-      <c r="E133" s="9" t="s">
+      <c r="E133" s="9">
+        <v>226262</v>
+      </c>
+      <c r="F133" s="9">
+        <v>179490</v>
+      </c>
+      <c r="G133" s="9">
+        <v>257048</v>
+      </c>
+      <c r="H133" s="9">
+        <v>468608</v>
+      </c>
+      <c r="I133" s="9">
+        <v>618601</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B134" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F133" s="9">
-        <v>226262</v>
-      </c>
-      <c r="G133" s="9">
-        <v>179490</v>
-      </c>
-      <c r="H133" s="9">
-        <v>257048</v>
-      </c>
-      <c r="I133" s="9">
-        <v>468608</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="10" t="s">
+      <c r="C134" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11">
+        <v>45081</v>
+      </c>
+      <c r="F134" s="11">
+        <v>32677</v>
+      </c>
+      <c r="G134" s="11">
+        <v>50969</v>
+      </c>
+      <c r="H134" s="11">
+        <v>90011</v>
+      </c>
+      <c r="I134" s="11">
+        <v>114788</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B135" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C134" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F134" s="11">
-        <v>45081</v>
-      </c>
-      <c r="G134" s="11">
-        <v>32677</v>
-      </c>
-      <c r="H134" s="11">
-        <v>50969</v>
-      </c>
-      <c r="I134" s="11">
-        <v>90011</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="8" t="s">
+      <c r="C135" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9">
+        <v>152497</v>
+      </c>
+      <c r="F135" s="9">
+        <v>155686</v>
+      </c>
+      <c r="G135" s="9">
+        <v>157789</v>
+      </c>
+      <c r="H135" s="9">
+        <v>370120</v>
+      </c>
+      <c r="I135" s="9">
+        <v>599835</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B136" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C135" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F135" s="9">
-        <v>152497</v>
-      </c>
-      <c r="G135" s="9">
-        <v>155686</v>
-      </c>
-      <c r="H135" s="9">
-        <v>157789</v>
-      </c>
-      <c r="I135" s="9">
-        <v>370120</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="10" t="s">
+      <c r="C136" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11">
+        <v>509815</v>
+      </c>
+      <c r="F136" s="11">
+        <v>692197</v>
+      </c>
+      <c r="G136" s="11">
+        <v>1083631</v>
+      </c>
+      <c r="H136" s="11">
+        <v>1488372</v>
+      </c>
+      <c r="I136" s="11">
+        <v>3982353</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B137" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C136" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F136" s="11">
-        <v>509815</v>
-      </c>
-      <c r="G136" s="11">
-        <v>692197</v>
-      </c>
-      <c r="H136" s="11">
-        <v>1083631</v>
-      </c>
-      <c r="I136" s="11">
-        <v>1488372</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B137" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C137" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D137" s="9"/>
-      <c r="E137" s="9" t="s">
-        <v>26</v>
+      <c r="E137" s="9">
+        <v>140127</v>
       </c>
       <c r="F137" s="9">
-        <v>140127</v>
+        <v>140149</v>
       </c>
       <c r="G137" s="9">
-        <v>140149</v>
+        <v>140063</v>
       </c>
       <c r="H137" s="9">
         <v>140063</v>
       </c>
       <c r="I137" s="9">
-        <v>140063</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+        <v>141153</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F138" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G138" s="11">
+        <v>44</v>
+      </c>
+      <c r="F138" s="11">
         <v>34785</v>
       </c>
-      <c r="H138" s="11" t="s">
-        <v>26</v>
+      <c r="G138" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H138" s="11">
+        <v>51605</v>
       </c>
       <c r="I138" s="11">
-        <v>51605</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+        <v>39170</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D139" s="9"/>
-      <c r="E139" s="9" t="s">
-        <v>26</v>
+      <c r="E139" s="9">
+        <v>55014</v>
       </c>
       <c r="F139" s="9">
-        <v>55014</v>
+        <v>62898</v>
       </c>
       <c r="G139" s="9">
-        <v>62898</v>
+        <v>82639</v>
       </c>
       <c r="H139" s="9">
-        <v>82639</v>
+        <v>141605</v>
       </c>
       <c r="I139" s="9">
-        <v>141605</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1145269</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3335,7 +3335,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3345,7 +3345,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3355,7 +3355,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
         <v>45</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3387,151 +3387,151 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C145" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9">
+        <v>175553</v>
+      </c>
+      <c r="F145" s="9">
+        <v>230424</v>
+      </c>
+      <c r="G145" s="9">
+        <v>389420</v>
+      </c>
+      <c r="H145" s="9">
+        <v>1004756</v>
+      </c>
+      <c r="I145" s="9">
+        <v>1533362</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B146" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11">
+        <v>31118</v>
+      </c>
+      <c r="F146" s="11">
+        <v>60550</v>
+      </c>
+      <c r="G146" s="11">
+        <v>112670</v>
+      </c>
+      <c r="H146" s="11">
+        <v>123758</v>
+      </c>
+      <c r="I146" s="11">
+        <v>197212</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B147" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9">
+        <v>157988</v>
+      </c>
+      <c r="F147" s="9">
+        <v>390547</v>
+      </c>
+      <c r="G147" s="9">
+        <v>430008</v>
+      </c>
+      <c r="H147" s="9">
+        <v>1059248</v>
+      </c>
+      <c r="I147" s="9">
+        <v>849993</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B148" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11">
+        <v>700133</v>
+      </c>
+      <c r="F148" s="11">
+        <v>938228</v>
+      </c>
+      <c r="G148" s="11">
+        <v>1317576</v>
+      </c>
+      <c r="H148" s="11">
+        <v>4308567</v>
+      </c>
+      <c r="I148" s="11">
+        <v>5710439</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B149" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C149" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F145" s="9">
-        <v>175553</v>
-      </c>
-      <c r="G145" s="9">
-        <v>230424</v>
-      </c>
-      <c r="H145" s="9">
-        <v>389420</v>
-      </c>
-      <c r="I145" s="9">
-        <v>1004756</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B146" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F146" s="11">
-        <v>31118</v>
-      </c>
-      <c r="G146" s="11">
-        <v>60550</v>
-      </c>
-      <c r="H146" s="11">
-        <v>112670</v>
-      </c>
-      <c r="I146" s="11">
-        <v>123758</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B147" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F147" s="9">
-        <v>157988</v>
-      </c>
-      <c r="G147" s="9">
-        <v>390547</v>
-      </c>
-      <c r="H147" s="9">
-        <v>430008</v>
-      </c>
-      <c r="I147" s="9">
-        <v>1059248</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B148" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D148" s="11"/>
-      <c r="E148" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F148" s="11">
-        <v>700133</v>
-      </c>
-      <c r="G148" s="11">
-        <v>938228</v>
-      </c>
-      <c r="H148" s="11">
-        <v>1317576</v>
-      </c>
-      <c r="I148" s="11">
-        <v>4308567</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B149" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="D149" s="9"/>
-      <c r="E149" s="9" t="s">
-        <v>26</v>
+      <c r="E149" s="9">
+        <v>122974</v>
       </c>
       <c r="F149" s="9">
-        <v>122974</v>
+        <v>20379</v>
       </c>
       <c r="G149" s="9">
-        <v>20379</v>
+        <v>24322</v>
       </c>
       <c r="H149" s="9">
-        <v>24322</v>
+        <v>36211</v>
       </c>
       <c r="I149" s="9">
-        <v>36211</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+        <v>34531</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D150" s="11"/>
-      <c r="E150" s="11" t="s">
-        <v>26</v>
+      <c r="E150" s="11">
+        <v>64562</v>
       </c>
       <c r="F150" s="11">
-        <v>64562</v>
+        <v>94009</v>
       </c>
       <c r="G150" s="11">
-        <v>94009</v>
+        <v>120068</v>
       </c>
       <c r="H150" s="11">
-        <v>120068</v>
+        <v>105127</v>
       </c>
       <c r="I150" s="11">
-        <v>105127</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+        <v>475847</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3541,7 +3541,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3551,7 +3551,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3561,7 +3561,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B154" s="7" t="s">
         <v>46</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3593,175 +3593,175 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C156" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9">
+        <v>179502</v>
+      </c>
+      <c r="F156" s="9">
+        <v>247005</v>
+      </c>
+      <c r="G156" s="9">
+        <v>359789</v>
+      </c>
+      <c r="H156" s="9">
+        <v>1081704</v>
+      </c>
+      <c r="I156" s="9">
+        <v>1359741</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B157" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11">
+        <v>32676</v>
+      </c>
+      <c r="F157" s="11">
+        <v>50969</v>
+      </c>
+      <c r="G157" s="11">
+        <v>90011</v>
+      </c>
+      <c r="H157" s="11">
+        <v>114789</v>
+      </c>
+      <c r="I157" s="11">
+        <v>172147</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B158" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9">
+        <v>155709</v>
+      </c>
+      <c r="F158" s="9">
+        <v>197443</v>
+      </c>
+      <c r="G158" s="9">
+        <v>315756</v>
+      </c>
+      <c r="H158" s="9">
+        <v>1110669</v>
+      </c>
+      <c r="I158" s="9">
+        <v>1179549</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B159" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11">
+        <v>692257</v>
+      </c>
+      <c r="F159" s="11">
+        <v>888172</v>
+      </c>
+      <c r="G159" s="11">
+        <v>1310496</v>
+      </c>
+      <c r="H159" s="11">
+        <v>3911331</v>
+      </c>
+      <c r="I159" s="11">
+        <v>6031665</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B160" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9">
+        <v>140024</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H160" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I160" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B161" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C161" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F156" s="9">
-        <v>179502</v>
-      </c>
-      <c r="G156" s="9">
-        <v>247005</v>
-      </c>
-      <c r="H156" s="9">
-        <v>359789</v>
-      </c>
-      <c r="I156" s="9">
-        <v>1081704</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B157" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D157" s="11"/>
-      <c r="E157" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F157" s="11">
-        <v>32676</v>
-      </c>
-      <c r="G157" s="11">
-        <v>50969</v>
-      </c>
-      <c r="H157" s="11">
-        <v>90011</v>
-      </c>
-      <c r="I157" s="11">
-        <v>114789</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B158" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F158" s="9">
-        <v>155709</v>
-      </c>
-      <c r="G158" s="9">
-        <v>197443</v>
-      </c>
-      <c r="H158" s="9">
-        <v>315756</v>
-      </c>
-      <c r="I158" s="9">
-        <v>1110669</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B159" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D159" s="11"/>
-      <c r="E159" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F159" s="11">
-        <v>692257</v>
-      </c>
-      <c r="G159" s="11">
-        <v>888172</v>
-      </c>
-      <c r="H159" s="11">
-        <v>1310496</v>
-      </c>
-      <c r="I159" s="11">
-        <v>3911331</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B160" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F160" s="9">
-        <v>140024</v>
-      </c>
-      <c r="G160" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H160" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I160" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B161" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="D161" s="11"/>
-      <c r="E161" s="11" t="s">
-        <v>26</v>
+      <c r="E161" s="11">
+        <v>122974</v>
       </c>
       <c r="F161" s="11">
-        <v>122974</v>
+        <v>20506</v>
       </c>
       <c r="G161" s="11">
-        <v>20506</v>
+        <v>22392</v>
       </c>
       <c r="H161" s="11">
-        <v>22392</v>
+        <v>36098</v>
       </c>
       <c r="I161" s="11">
-        <v>36098</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35370</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D162" s="9"/>
-      <c r="E162" s="9" t="s">
-        <v>26</v>
+      <c r="E162" s="9">
+        <v>62896</v>
       </c>
       <c r="F162" s="9">
-        <v>62896</v>
+        <v>82650</v>
       </c>
       <c r="G162" s="9">
-        <v>82650</v>
+        <v>111061</v>
       </c>
       <c r="H162" s="9">
-        <v>111061</v>
+        <v>114489</v>
       </c>
       <c r="I162" s="9">
-        <v>114489</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+        <v>336245</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3771,7 +3771,7 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3781,7 +3781,7 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3791,7 +3791,7 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B166" s="7" t="s">
         <v>47</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -3823,7 +3823,7 @@
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="8" t="s">
         <v>24</v>
       </c>
@@ -3831,167 +3831,167 @@
         <v>25</v>
       </c>
       <c r="D168" s="9"/>
-      <c r="E168" s="9" t="s">
+      <c r="E168" s="9">
+        <v>179545</v>
+      </c>
+      <c r="F168" s="9">
+        <v>119010</v>
+      </c>
+      <c r="G168" s="9">
+        <v>265615</v>
+      </c>
+      <c r="H168" s="9">
+        <v>618601</v>
+      </c>
+      <c r="I168" s="9">
+        <v>1633277</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B169" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F168" s="9">
-        <v>179545</v>
-      </c>
-      <c r="G168" s="9">
-        <v>119010</v>
-      </c>
-      <c r="H168" s="9">
-        <v>265615</v>
-      </c>
-      <c r="I168" s="9">
-        <v>618601</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B169" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C169" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D169" s="11"/>
-      <c r="E169" s="11" t="s">
-        <v>26</v>
+      <c r="E169" s="11">
+        <v>32677</v>
       </c>
       <c r="F169" s="11">
-        <v>32677</v>
+        <v>50969</v>
       </c>
       <c r="G169" s="11">
-        <v>50969</v>
+        <v>90013</v>
       </c>
       <c r="H169" s="11">
-        <v>90013</v>
+        <v>114788</v>
       </c>
       <c r="I169" s="11">
-        <v>114788</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+        <v>176713</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D170" s="9"/>
-      <c r="E170" s="9" t="s">
-        <v>26</v>
+      <c r="E170" s="9">
+        <v>155664</v>
       </c>
       <c r="F170" s="9">
-        <v>155664</v>
+        <v>97384</v>
       </c>
       <c r="G170" s="9">
-        <v>97384</v>
+        <v>208765</v>
       </c>
       <c r="H170" s="9">
-        <v>208765</v>
+        <v>599835</v>
       </c>
       <c r="I170" s="9">
-        <v>599835</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+        <v>450564</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C171" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D171" s="11"/>
-      <c r="E171" s="11" t="s">
-        <v>26</v>
+      <c r="E171" s="11">
+        <v>692197</v>
       </c>
       <c r="F171" s="11">
-        <v>692197</v>
+        <v>557369</v>
       </c>
       <c r="G171" s="11">
-        <v>557369</v>
+        <v>1279500</v>
       </c>
       <c r="H171" s="11">
-        <v>1279500</v>
+        <v>3982353</v>
       </c>
       <c r="I171" s="11">
-        <v>3982353</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4680718</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C172" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D172" s="9"/>
-      <c r="E172" s="9" t="s">
-        <v>26</v>
+      <c r="E172" s="9">
+        <v>140149</v>
       </c>
       <c r="F172" s="9">
         <v>140149</v>
       </c>
       <c r="G172" s="9">
-        <v>140149</v>
+        <v>140063</v>
       </c>
       <c r="H172" s="9">
         <v>140063</v>
       </c>
       <c r="I172" s="9">
-        <v>140063</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+        <v>141153</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C173" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C173" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="D173" s="11"/>
       <c r="E173" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F173" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G173" s="11">
+        <v>44</v>
+      </c>
+      <c r="F173" s="11">
         <v>16774</v>
       </c>
-      <c r="H173" s="11" t="s">
-        <v>26</v>
+      <c r="G173" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H173" s="11">
+        <v>39170</v>
       </c>
       <c r="I173" s="11">
-        <v>39170</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35332</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D174" s="9"/>
-      <c r="E174" s="9" t="s">
-        <v>26</v>
+      <c r="E174" s="9">
+        <v>62898</v>
       </c>
       <c r="F174" s="9">
-        <v>62898</v>
+        <v>82639</v>
       </c>
       <c r="G174" s="9">
-        <v>82639</v>
+        <v>111066</v>
       </c>
       <c r="H174" s="9">
-        <v>111066</v>
+        <v>114491</v>
       </c>
       <c r="I174" s="9">
-        <v>114491</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20195899</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4001,7 +4001,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4011,7 +4011,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4021,7 +4021,7 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B178" s="7" t="s">
         <v>48</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -4053,7 +4053,7 @@
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="8" t="s">
         <v>49</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="s">
         <v>50</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="8" t="s">
         <v>51</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="10" t="s">
         <v>52</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="8" t="s">
         <v>53</v>
       </c>
@@ -4163,73 +4163,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11">
-        <v>208185</v>
+        <v>207862</v>
       </c>
       <c r="F185" s="11">
-        <v>207862</v>
+        <v>167035</v>
       </c>
       <c r="G185" s="11">
-        <v>167035</v>
+        <v>172237</v>
       </c>
       <c r="H185" s="11">
-        <v>172237</v>
+        <v>520430</v>
       </c>
       <c r="I185" s="11">
-        <v>520430</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+        <v>988466</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
       <c r="E186" s="9">
-        <v>104356</v>
+        <v>111984</v>
       </c>
       <c r="F186" s="9">
-        <v>111984</v>
+        <v>81645</v>
       </c>
       <c r="G186" s="9">
-        <v>81645</v>
+        <v>108703</v>
       </c>
       <c r="H186" s="9">
-        <v>108703</v>
+        <v>115467</v>
       </c>
       <c r="I186" s="9">
-        <v>115467</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+        <v>124800</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
       <c r="E187" s="11">
-        <v>228186</v>
+        <v>261888</v>
       </c>
       <c r="F187" s="11">
-        <v>261888</v>
+        <v>302661</v>
       </c>
       <c r="G187" s="11">
-        <v>302661</v>
+        <v>461948</v>
       </c>
       <c r="H187" s="11">
-        <v>461948</v>
+        <v>721468</v>
       </c>
       <c r="I187" s="11">
-        <v>721468</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1031651</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="8" t="s">
         <v>57</v>
       </c>
@@ -4251,48 +4251,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
       <c r="E189" s="11">
-        <v>78257</v>
+        <v>92054</v>
       </c>
       <c r="F189" s="11">
-        <v>92054</v>
+        <v>271911</v>
       </c>
       <c r="G189" s="11">
-        <v>271911</v>
+        <v>345684</v>
       </c>
       <c r="H189" s="11">
-        <v>345684</v>
+        <v>595361</v>
       </c>
       <c r="I189" s="11">
-        <v>595361</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1253174</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B190" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C190" s="15"/>
       <c r="D190" s="15"/>
       <c r="E190" s="15">
-        <v>618984</v>
+        <v>673788</v>
       </c>
       <c r="F190" s="15">
-        <v>673788</v>
+        <v>823252</v>
       </c>
       <c r="G190" s="15">
-        <v>823252</v>
+        <v>1088572</v>
       </c>
       <c r="H190" s="15">
-        <v>1088572</v>
+        <v>1952726</v>
       </c>
       <c r="I190" s="15">
-        <v>1952726</v>
+        <v>3398091</v>
       </c>
     </row>
   </sheetData>
